--- a/data/wn18rr/implication_stats_train.xlsx
+++ b/data/wn18rr/implication_stats_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/wn18rr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1BCD7-8226-1947-81E1-C5FD11BEB61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ADDF8E-12CA-C84E-B7B9-01BDB4910F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="24160" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>_derivationally_related_form</t>
   </si>
@@ -46,7 +46,10 @@
     <t>_has_part</t>
   </si>
   <si>
-    <t>Number of occurances per implication relation in the train set</t>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -458,15 +461,17 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/wn18rr/implication_stats_train.xlsx
+++ b/data/wn18rr/implication_stats_train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/wn18rr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ADDF8E-12CA-C84E-B7B9-01BDB4910F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEFE883-5D7E-A74C-B745-251661E15DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24160" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3220" windowWidth="24160" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -539,6 +539,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+    <sortCondition descending="1" ref="B2:B9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>